--- a/meeting_attendance.xlsx
+++ b/meeting_attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sckdk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43B5BEC-59A0-429C-B2F0-C4388D75D66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9851A40-405C-4604-A724-6BEB8BA93F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{E72CEAAE-E400-40A4-960E-E6CF6F1A5F9F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{E72CEAAE-E400-40A4-960E-E6CF6F1A5F9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Attendance</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Faris</t>
+  </si>
+  <si>
+    <t>Attended</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -63,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +79,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,10 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC052AD-010C-4F40-8372-109EA2C6810B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,38 +449,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>45033</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>45040</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>45047</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>45030</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>45044</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>45038</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>45045</v>
       </c>
